--- a/data_injection/db_question.xlsx
+++ b/data_injection/db_question.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phoec\OneDrive\Documents\GitHub\studifyWebServer\data_injection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooimi\git\studifyWebServer\data_injection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ED12C3-496D-4AD8-90CB-94699EAB87C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94651C-8B54-447F-99F4-6FBF9593A174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3690" windowWidth="17070" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>What are the types of requirements?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>Requirement Engineering</t>
   </si>
@@ -36,33 +33,12 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
     <t>All of the mentioned</t>
   </si>
   <si>
-    <t>Select the developer-specific requirement?</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Portability</t>
-  </si>
-  <si>
-    <t>Maintainability</t>
-  </si>
-  <si>
-    <t>Both Portability and Maintainability</t>
-  </si>
-  <si>
     <t>QUESTION</t>
   </si>
   <si>
@@ -85,6 +61,306 @@
   </si>
   <si>
     <t>ANSWER</t>
+  </si>
+  <si>
+    <t>Which of the following is not a step of requirement engineering?</t>
+  </si>
+  <si>
+    <t>Elicitation</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Software Design</t>
+  </si>
+  <si>
+    <t>Software Verification</t>
+  </si>
+  <si>
+    <t>Software Maintenance</t>
+  </si>
+  <si>
+    <t>What does QFD stand for?</t>
+  </si>
+  <si>
+    <t>What does FAST stand for?</t>
+  </si>
+  <si>
+    <t>Quality Function Design</t>
+  </si>
+  <si>
+    <t>Quality Function Development</t>
+  </si>
+  <si>
+    <t>Quality Function Deployment</t>
+  </si>
+  <si>
+    <t>None of the mentioned</t>
+  </si>
+  <si>
+    <t>Facilitated Application Specification Technique</t>
+  </si>
+  <si>
+    <t>Functional Application Specification Technique</t>
+  </si>
+  <si>
+    <t>Fast Application Specification Technique</t>
+  </si>
+  <si>
+    <t>What is the representation of multiple requirements as single requirement?</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Amalgamation</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>What is the first step in requirement engineering?</t>
+  </si>
+  <si>
+    <t>Gathering requirment</t>
+  </si>
+  <si>
+    <t>Requirement analysis</t>
+  </si>
+  <si>
+    <t>Feasibility study</t>
+  </si>
+  <si>
+    <t>What does SRS stand for?</t>
+  </si>
+  <si>
+    <t>System Requirement Specification</t>
+  </si>
+  <si>
+    <t>Software Requirement Specification</t>
+  </si>
+  <si>
+    <t>System Requirement Software</t>
+  </si>
+  <si>
+    <t>Software Requesting Service</t>
+  </si>
+  <si>
+    <t>Which is not a characteristic of good software design?</t>
+  </si>
+  <si>
+    <t>Complex design</t>
+  </si>
+  <si>
+    <t>Understandibility</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Which of the following is designed in the design phase?</t>
+  </si>
+  <si>
+    <t>Different modules of the software</t>
+  </si>
+  <si>
+    <t>Interface between modules</t>
+  </si>
+  <si>
+    <t>Data and control flow</t>
+  </si>
+  <si>
+    <t>In which design phase can changes be easily made?</t>
+  </si>
+  <si>
+    <t>Preliminary design phase</t>
+  </si>
+  <si>
+    <t>Detailed design phase</t>
+  </si>
+  <si>
+    <t>All phases</t>
+  </si>
+  <si>
+    <t>Which is most important for software design?</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Which is not common to all design methods?</t>
+  </si>
+  <si>
+    <t>Configuration management</t>
+  </si>
+  <si>
+    <t>Functional component representation</t>
+  </si>
+  <si>
+    <t>Quality assessment guidelines</t>
+  </si>
+  <si>
+    <t>Refinement heuristics</t>
+  </si>
+  <si>
+    <t>Which involves testing of individual components?</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>Validation testing</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Which is not a static testing technique?</t>
+  </si>
+  <si>
+    <t>Walkthrough</t>
+  </si>
+  <si>
+    <t>Error guessing</t>
+  </si>
+  <si>
+    <t>Inspections</t>
+  </si>
+  <si>
+    <t>Data flow analysis</t>
+  </si>
+  <si>
+    <t>Which testing is performed first?</t>
+  </si>
+  <si>
+    <t>Dynamic testing</t>
+  </si>
+  <si>
+    <t>Black box testing</t>
+  </si>
+  <si>
+    <t>White box testing</t>
+  </si>
+  <si>
+    <t>Static testing</t>
+  </si>
+  <si>
+    <t>Which testing focuses on heavily testing one particular module?</t>
+  </si>
+  <si>
+    <t>Gorilla testing</t>
+  </si>
+  <si>
+    <t>Fuzz testing</t>
+  </si>
+  <si>
+    <t>Inter-systems testing</t>
+  </si>
+  <si>
+    <t>Breadth testing</t>
+  </si>
+  <si>
+    <t>Which methodology performs maintenance testing?</t>
+  </si>
+  <si>
+    <t>Retesting</t>
+  </si>
+  <si>
+    <t>Breadth test and depth test</t>
+  </si>
+  <si>
+    <t>Sanity testing</t>
+  </si>
+  <si>
+    <t>Confirmation testing</t>
+  </si>
+  <si>
+    <t>White box techniques are also classified as?</t>
+  </si>
+  <si>
+    <t>Structural testing</t>
+  </si>
+  <si>
+    <t>Design based testing</t>
+  </si>
+  <si>
+    <t>What is testing done without planning and documentation known as?</t>
+  </si>
+  <si>
+    <t>Adhoc testing</t>
+  </si>
+  <si>
+    <t>Regression testing</t>
+  </si>
+  <si>
+    <t>Testing comes under which category of cost of quality?</t>
+  </si>
+  <si>
+    <t>Appraisal</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Preventive</t>
+  </si>
+  <si>
+    <t>Software maintenance includes?</t>
+  </si>
+  <si>
+    <t>Error corrections</t>
+  </si>
+  <si>
+    <t>Enhancements of capabilities</t>
+  </si>
+  <si>
+    <t>Removal of obsolete capabilities</t>
+  </si>
+  <si>
+    <t>How many categories of maintenance are there?</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Which modifies the software to match changes in the environment?</t>
+  </si>
+  <si>
+    <t>Corrective</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>Perfective</t>
   </si>
 </sst>
 </file>
@@ -428,101 +704,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2000" max="2000" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2000" max="2000" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
